--- a/2022/ASV/wheat metadata.xlsx
+++ b/2022/ASV/wheat metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Rhizosphere-sequencing\2022\ASV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF2A394-9BB0-445E-A2A1-63D16FCE98C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AABFD8-CD1C-46DF-9DE3-232420D31A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wheat metadata" sheetId="1" r:id="rId1"/>
@@ -747,13 +747,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
